--- a/project/portal/test/com/stomato/util/test.xlsx
+++ b/project/portal/test/com/stomato/util/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="19005" windowHeight="6270"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -377,13 +378,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="21.625" customWidth="1"/>
+    <col min="1" max="1" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
